--- a/testdata/myfile.xlsx
+++ b/testdata/myfile.xlsx
@@ -12,24 +12,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
-    <t>HI</t>
+    <t>seshu</t>
   </si>
   <si>
-    <t>SESHU</t>
+    <t>babu</t>
   </si>
   <si>
-    <t>BABU</t>
+    <t>karanam</t>
   </si>
   <si>
-    <t>KARANAM</t>
+    <t>akhil</t>
   </si>
   <si>
-    <t>HO</t>
+    <t>veerakumari</t>
   </si>
   <si>
-    <t>JAI</t>
+    <t>srinivasrao</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -74,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -87,13 +93,19 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -103,13 +115,30 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/myfile.xlsx
+++ b/testdata/myfile.xlsx
@@ -12,30 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
-    <t>seshu</t>
+    <t>NAME</t>
   </si>
   <si>
-    <t>babu</t>
+    <t>AGE</t>
   </si>
   <si>
-    <t>karanam</t>
+    <t>LASTNAME</t>
   </si>
   <si>
-    <t>akhil</t>
+    <t>PASSWORD</t>
   </si>
   <si>
-    <t>veerakumari</t>
+    <t>ok</t>
   </si>
   <si>
-    <t>srinivasrao</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>hello</t>
+    <t>ook</t>
   </si>
 </sst>
 </file>
@@ -102,10 +96,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -113,32 +107,32 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/myfile.xlsx
+++ b/testdata/myfile.xlsx
@@ -12,24 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="2">
   <si>
-    <t>NAME</t>
+    <t>hello</t>
   </si>
   <si>
-    <t>AGE</t>
-  </si>
-  <si>
-    <t>LASTNAME</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>ook</t>
+    <t>helli</t>
   </si>
 </sst>
 </file>
@@ -85,54 +73,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/myfile.xlsx
+++ b/testdata/myfile.xlsx
@@ -12,12 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
-    <t>hello</t>
+    <t>seshu</t>
   </si>
   <si>
-    <t>helli</t>
+    <t>sssshu</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -84,43 +93,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
